--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Component Name</t>
   </si>
@@ -29,123 +29,6 @@
   </si>
   <si>
     <t>Display Oled</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://www.santechnology.com/pdf/Digikey/Standard%20TFT/ST0103A2W-WSNLW-F.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>https://it.aliexpress.com/i/1005006103666704.html</t>
-  </si>
-  <si>
-    <t>BMI160</t>
-  </si>
-  <si>
-    <t>IMU 6-Axis</t>
-  </si>
-  <si>
-    <t>Datasheet &amp; Ecad Mouser Link</t>
-  </si>
-  <si>
-    <t>https://it.aliexpress.com/item/1005006347655050</t>
-  </si>
-  <si>
-    <t>NXP MIMX8MN5DVPIZAA</t>
-  </si>
-  <si>
-    <t>CPU+AI Co-Processor</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/302/IMX8MNCEC-2256506.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/ProductDetail/NXP-Semiconductors/MIMX8MN5DVPIZAA</t>
-  </si>
-  <si>
-    <t>NXP PCA9450BHNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMIC </t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/302/PCA9450-3420300.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/ProductDetail/NXP-Semiconductors/PCA9450BHNY</t>
-  </si>
-  <si>
-    <t>M310220 Kyocera Avx</t>
-  </si>
-  <si>
-    <t>Ceramic Antenna (w/b)</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/40/AVX_E_M310220-3313042.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/ProductDetail/KYOCERA-AVX/M310220</t>
-  </si>
-  <si>
-    <t>ADG824BCPZ-REEL7</t>
-  </si>
-  <si>
-    <t>RF Switch for antenna diversity</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/609/ADG824-1503118.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/ProductDetail/Analog-Devices/ADG824BCPZ-REEL7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini Camera 5MP </t>
-  </si>
-  <si>
-    <t>Autofocus, around 110° FOV</t>
-  </si>
-  <si>
-    <t>https://www.iadiy.com/MCM5M120M6F1.pdf</t>
-  </si>
-  <si>
-    <t>https://www.iadiy.com/camera-module/MIPI-camera-module</t>
-  </si>
-  <si>
-    <t>JST B4B-ZR-SM4-TF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector </t>
-  </si>
-  <si>
-    <t>https://www.jst.com/products/insulation-displacement-connectors-wire-to-board-type/zr-connector/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.it/it/products/detail/jst-sales-america-inc/B4B-ZR-SM4-TF</t>
-  </si>
-  <si>
-    <t>RS PRO - Miniature Speaker</t>
-  </si>
-  <si>
-    <t>External Speaker</t>
-  </si>
-  <si>
-    <t>https://docs.rs-online.com/673f/0900766b8168e0df.pdf</t>
-  </si>
-  <si>
-    <t>https://uk.rs-online.com/web/p/miniature-speakers/1797441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC7SP125P5X </t>
-  </si>
-  <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/PowerSolutions/product.do?id=NC7SP125P5X</t>
   </si>
   <si>
     <r>
@@ -153,16 +36,119 @@
         <color rgb="FF434343"/>
         <u/>
       </rPr>
-      <t>https://www.mouser.it/ProductDetail/onsemi-Fairchild/NC7SP125P5X</t>
+      <t>http://www.santechnology.com/pdf/Digikey/Standard%20TFT/ST0103A2W-WSNLW-F.pdf</t>
     </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF434343"/>
-        <u/>
-      </rPr>
-      <t>t</t>
-    </r>
+  </si>
+  <si>
+    <t>https://it.aliexpress.com/i/1005006103666704.html</t>
+  </si>
+  <si>
+    <t>BMI160</t>
+  </si>
+  <si>
+    <t>IMU 6-Axis</t>
+  </si>
+  <si>
+    <t>Datasheet &amp; Ecad Mouser Link</t>
+  </si>
+  <si>
+    <t>https://it.aliexpress.com/item/1005006347655050</t>
+  </si>
+  <si>
+    <t>NXP MIMX8MN5DVPIZAA</t>
+  </si>
+  <si>
+    <t>CPU+AI Co-Processor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/302/IMX8MNCEC-2256506.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/NXP-Semiconductors/MIMX8MN5DVPIZAA</t>
+  </si>
+  <si>
+    <t>NXP PCA9450BHNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMIC </t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/302/PCA9450-3420300.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/NXP-Semiconductors/PCA9450BHNY</t>
+  </si>
+  <si>
+    <t>M310220 Kyocera Avx</t>
+  </si>
+  <si>
+    <t>Ceramic Antenna (w/b)</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/40/AVX_E_M310220-3313042.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KYOCERA-AVX/M310220</t>
+  </si>
+  <si>
+    <t>ADG824BCPZ-REEL7</t>
+  </si>
+  <si>
+    <t>RF Switch for antenna diversity</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/609/ADG824-1503118.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Analog-Devices/ADG824BCPZ-REEL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Camera 5MP </t>
+  </si>
+  <si>
+    <t>Autofocus, around 110° FOV</t>
+  </si>
+  <si>
+    <t>https://www.iadiy.com/MCM5M120M6F1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iadiy.com/camera-module/MIPI-camera-module</t>
+  </si>
+  <si>
+    <t>JST B4B-ZR-SM4-TF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector </t>
+  </si>
+  <si>
+    <t>https://www.jst.com/products/insulation-displacement-connectors-wire-to-board-type/zr-connector/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.it/it/products/detail/jst-sales-america-inc/B4B-ZR-SM4-TF</t>
+  </si>
+  <si>
+    <t>RS PRO - Miniature Speaker</t>
+  </si>
+  <si>
+    <t>External Speaker</t>
+  </si>
+  <si>
+    <t>https://docs.rs-online.com/673f/0900766b8168e0df.pdf</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/miniature-speakers/1797441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC7SP125P5X </t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/PowerSolutions/product.do?id=NC7SP125P5X</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/onsemi-Fairchild/NC7SP125P5X?qs=TWXTHIu%252B82nb7FGmHgsvEw%3D%3D&amp;srsltid=AfmBOooORL5uRg8tdJN7EaB8mMtPC6v3ZApJraHUTKOvSSltpouclgv3</t>
   </si>
   <si>
     <t>MAX98357AETE+T</t>
@@ -186,19 +172,7 @@
     <t>https://www.mouser.it/datasheet/2/609/ADP190_191-1503397.pdf</t>
   </si>
   <si>
-    <t>https://www.mouser.it/ProductDetail/Analog-Devices/ADP191ACBZ-R7</t>
-  </si>
-  <si>
-    <t>TPD1E10B06</t>
-  </si>
-  <si>
-    <t>ESD Protection</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/gpn/tpd1e10b06</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/ProductDetail/Texas-Instruments/TPD1E10B06DPYR</t>
+    <t>https://www.mouser.it/ProductDetail/Analog-Devices/ADP191ACBZ-R7?qs=WIvQP4zGaniqVZQregMmwA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -224,7 +198,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -263,7 +237,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF333333"/>
+      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -274,7 +248,8 @@
     <font>
       <u/>
       <color rgb="FF333333"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -297,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -427,20 +402,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -471,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -515,25 +476,22 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -803,6 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -917,7 +876,7 @@
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -931,7 +890,7 @@
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -962,7 +921,7 @@
       <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -976,7 +935,7 @@
       <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1015,26 +974,16 @@
       <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1062,12 +1011,13 @@
     <hyperlink r:id="rId22" ref="D12"/>
     <hyperlink r:id="rId23" ref="C13"/>
     <hyperlink r:id="rId24" ref="D13"/>
-    <hyperlink r:id="rId25" ref="C14"/>
-    <hyperlink r:id="rId26" ref="D14"/>
   </hyperlinks>
-  <drawing r:id="rId27"/>
+  <printOptions gridLines="1" horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>